--- a/kdc05.xlsx
+++ b/kdc05.xlsx
@@ -5,15 +5,16 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liangdengli/Temp/kdc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liangdengli/Temp/KDC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DB190FE-E60D-4243-A127-47B3BE61AA8A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1985D2B8-681F-1D4A-BCFB-1CCBB0128DBE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="480" windowWidth="14400" windowHeight="14060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="480" windowWidth="14400" windowHeight="14060" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Book1" sheetId="1" r:id="rId1"/>
+    <sheet name="Book2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="16">
   <si>
     <t>序列</t>
   </si>
@@ -918,7 +919,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D126"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
@@ -1025,4 +1026,178 @@
   <dataConsolidate/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54CC8021-1A99-E844-8A45-2B4BC5D17DC0}">
+  <dimension ref="A1:D126"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5:A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>123</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataConsolidate/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>